--- a/Code/Results/Cases/Case_3_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014590152680689</v>
+        <v>1.036897754395654</v>
       </c>
       <c r="D2">
-        <v>1.033432035092245</v>
+        <v>1.045054397419338</v>
       </c>
       <c r="E2">
-        <v>1.02856363986375</v>
+        <v>1.045713539688314</v>
       </c>
       <c r="F2">
-        <v>1.038244934148118</v>
+        <v>1.056499326006375</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052865755247214</v>
+        <v>1.041475486622723</v>
       </c>
       <c r="J2">
-        <v>1.036343063081881</v>
+        <v>1.042003567069894</v>
       </c>
       <c r="K2">
-        <v>1.044444457623927</v>
+        <v>1.047823715058676</v>
       </c>
       <c r="L2">
-        <v>1.039638879153433</v>
+        <v>1.048481006881135</v>
       </c>
       <c r="M2">
-        <v>1.049195979046942</v>
+        <v>1.059236869085619</v>
       </c>
       <c r="N2">
-        <v>1.015980938787219</v>
+        <v>1.01795397991912</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018226377076194</v>
+        <v>1.037672824603702</v>
       </c>
       <c r="D3">
-        <v>1.036159947814495</v>
+        <v>1.04565916556913</v>
       </c>
       <c r="E3">
-        <v>1.031552919280968</v>
+        <v>1.04640096635731</v>
       </c>
       <c r="F3">
-        <v>1.041552017444058</v>
+        <v>1.057263585920294</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053979407533844</v>
+        <v>1.041657326117372</v>
       </c>
       <c r="J3">
-        <v>1.038232210450783</v>
+        <v>1.042423670028049</v>
       </c>
       <c r="K3">
-        <v>1.046350151803815</v>
+        <v>1.048240384574989</v>
       </c>
       <c r="L3">
-        <v>1.041797385409753</v>
+        <v>1.048980252678307</v>
       </c>
       <c r="M3">
-        <v>1.05167946643488</v>
+        <v>1.059814905820955</v>
       </c>
       <c r="N3">
-        <v>1.016611025600315</v>
+        <v>1.018093652924174</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020538135075928</v>
+        <v>1.038175002752569</v>
       </c>
       <c r="D4">
-        <v>1.037896768910378</v>
+        <v>1.046051026858271</v>
       </c>
       <c r="E4">
-        <v>1.03345890816154</v>
+        <v>1.046846756100785</v>
       </c>
       <c r="F4">
-        <v>1.043660292682219</v>
+        <v>1.057759191844736</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054677725714265</v>
+        <v>1.041773945629559</v>
       </c>
       <c r="J4">
-        <v>1.039430674732379</v>
+        <v>1.042695465704114</v>
       </c>
       <c r="K4">
-        <v>1.047558355685827</v>
+        <v>1.048509836479969</v>
       </c>
       <c r="L4">
-        <v>1.043169612124849</v>
+        <v>1.04930359643157</v>
       </c>
       <c r="M4">
-        <v>1.053258855307855</v>
+        <v>1.060189347183397</v>
       </c>
       <c r="N4">
-        <v>1.017010716131011</v>
+        <v>1.018183999184924</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021500431231913</v>
+        <v>1.038386273537069</v>
       </c>
       <c r="D5">
-        <v>1.038620311875038</v>
+        <v>1.046215891659052</v>
       </c>
       <c r="E5">
-        <v>1.034253596313837</v>
+        <v>1.047034398366809</v>
       </c>
       <c r="F5">
-        <v>1.04453924331668</v>
+        <v>1.057967800603939</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054966048844038</v>
+        <v>1.041822721926379</v>
       </c>
       <c r="J5">
-        <v>1.039928906795983</v>
+        <v>1.042809717892125</v>
       </c>
       <c r="K5">
-        <v>1.048060448646831</v>
+        <v>1.048623074036711</v>
       </c>
       <c r="L5">
-        <v>1.043740776519537</v>
+        <v>1.049439599991159</v>
       </c>
       <c r="M5">
-        <v>1.053916382575797</v>
+        <v>1.060346859389729</v>
       </c>
       <c r="N5">
-        <v>1.017176868287137</v>
+        <v>1.018221972723816</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021661451857647</v>
+        <v>1.038421755869856</v>
       </c>
       <c r="D6">
-        <v>1.038741414558763</v>
+        <v>1.046243580534343</v>
       </c>
       <c r="E6">
-        <v>1.034386646630782</v>
+        <v>1.047065917888979</v>
       </c>
       <c r="F6">
-        <v>1.044686396700209</v>
+        <v>1.058002841882039</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055014154154976</v>
+        <v>1.041830896963012</v>
       </c>
       <c r="J6">
-        <v>1.040012237286855</v>
+        <v>1.042828900669069</v>
       </c>
       <c r="K6">
-        <v>1.048144413641132</v>
+        <v>1.048642084731584</v>
       </c>
       <c r="L6">
-        <v>1.043836346062401</v>
+        <v>1.049462439637148</v>
       </c>
       <c r="M6">
-        <v>1.054026410680468</v>
+        <v>1.060373312021333</v>
       </c>
       <c r="N6">
-        <v>1.017204657035771</v>
+        <v>1.018228348163146</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020551030554731</v>
+        <v>1.038177825156153</v>
       </c>
       <c r="D7">
-        <v>1.037906462712711</v>
+        <v>1.04605322929596</v>
       </c>
       <c r="E7">
-        <v>1.033469552482235</v>
+        <v>1.046849262475896</v>
       </c>
       <c r="F7">
-        <v>1.043672065950555</v>
+        <v>1.057761978281944</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054681598817913</v>
+        <v>1.041774598366421</v>
       </c>
       <c r="J7">
-        <v>1.039437353978922</v>
+        <v>1.042696992391263</v>
       </c>
       <c r="K7">
-        <v>1.047565087442462</v>
+        <v>1.048511349724832</v>
       </c>
       <c r="L7">
-        <v>1.043177266345372</v>
+        <v>1.049305413445328</v>
       </c>
       <c r="M7">
-        <v>1.053267666348942</v>
+        <v>1.060191451490105</v>
       </c>
       <c r="N7">
-        <v>1.017012943588187</v>
+        <v>1.018184506621369</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015827717251298</v>
+        <v>1.037159556031509</v>
       </c>
       <c r="D8">
-        <v>1.034359910388472</v>
+        <v>1.045258669510857</v>
       </c>
       <c r="E8">
-        <v>1.029579845529984</v>
+        <v>1.04594565486715</v>
       </c>
       <c r="F8">
-        <v>1.039369252483832</v>
+        <v>1.056757386555576</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053246787514599</v>
+        <v>1.041537155510082</v>
       </c>
       <c r="J8">
-        <v>1.036986545651871</v>
+        <v>1.042145550089142</v>
       </c>
       <c r="K8">
-        <v>1.04509373127919</v>
+        <v>1.047964562966057</v>
       </c>
       <c r="L8">
-        <v>1.040373508624563</v>
+        <v>1.048649666614981</v>
       </c>
       <c r="M8">
-        <v>1.050041095824916</v>
+        <v>1.059432132721566</v>
       </c>
       <c r="N8">
-        <v>1.016195565372624</v>
+        <v>1.018001189298845</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007176642136815</v>
+        <v>1.035370344639894</v>
       </c>
       <c r="D9">
-        <v>1.027885874098182</v>
+        <v>1.043862744727283</v>
       </c>
       <c r="E9">
-        <v>1.022500735602395</v>
+        <v>1.044360969259138</v>
       </c>
       <c r="F9">
-        <v>1.031535373713213</v>
+        <v>1.054995526221938</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050543695972227</v>
+        <v>1.041110803985039</v>
       </c>
       <c r="J9">
-        <v>1.032478495347179</v>
+        <v>1.041173599969963</v>
       </c>
       <c r="K9">
-        <v>1.040542162540569</v>
+        <v>1.046999884765631</v>
       </c>
       <c r="L9">
-        <v>1.035239005485175</v>
+        <v>1.047496511556336</v>
       </c>
       <c r="M9">
-        <v>1.04413672274599</v>
+        <v>1.058097358330876</v>
       </c>
       <c r="N9">
-        <v>1.014691873978508</v>
+        <v>1.017677940825732</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001169612086524</v>
+        <v>1.034181087483996</v>
       </c>
       <c r="D10">
-        <v>1.023407683977893</v>
+        <v>1.042935063782629</v>
       </c>
       <c r="E10">
-        <v>1.017617821719332</v>
+        <v>1.043309735461924</v>
       </c>
       <c r="F10">
-        <v>1.026129589971493</v>
+        <v>1.053826704333329</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048618162227</v>
+        <v>1.040821280281411</v>
       </c>
       <c r="J10">
-        <v>1.029336901761081</v>
+        <v>1.040525554871506</v>
       </c>
       <c r="K10">
-        <v>1.037366787087456</v>
+        <v>1.046356065815736</v>
       </c>
       <c r="L10">
-        <v>1.031676103642874</v>
+        <v>1.046729418910777</v>
       </c>
       <c r="M10">
-        <v>1.040042566534304</v>
+        <v>1.057209796378208</v>
       </c>
       <c r="N10">
-        <v>1.013643935237627</v>
+        <v>1.017462322930539</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9985071272959291</v>
+        <v>1.033666992548468</v>
       </c>
       <c r="D11">
-        <v>1.021427474203317</v>
+        <v>1.042534088933514</v>
       </c>
       <c r="E11">
-        <v>1.015461791776938</v>
+        <v>1.04285580451462</v>
       </c>
       <c r="F11">
-        <v>1.023742090512937</v>
+        <v>1.053321983721835</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047753681330821</v>
+        <v>1.040694670099559</v>
       </c>
       <c r="J11">
-        <v>1.027942143666839</v>
+        <v>1.040244942938943</v>
       </c>
       <c r="K11">
-        <v>1.035956305240657</v>
+        <v>1.0460771373598</v>
       </c>
       <c r="L11">
-        <v>1.030097895518239</v>
+        <v>1.046397677156698</v>
       </c>
       <c r="M11">
-        <v>1.038229737745427</v>
+        <v>1.05682603767871</v>
       </c>
       <c r="N11">
-        <v>1.013178698287325</v>
+        <v>1.017368935926766</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9975085271325871</v>
+        <v>1.033476166172004</v>
       </c>
       <c r="D12">
-        <v>1.020685519785413</v>
+        <v>1.042385258793457</v>
       </c>
       <c r="E12">
-        <v>1.014654421417373</v>
+        <v>1.042687385806957</v>
       </c>
       <c r="F12">
-        <v>1.022847946167966</v>
+        <v>1.053134718673112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047427832086146</v>
+        <v>1.040647455370388</v>
       </c>
       <c r="J12">
-        <v>1.027418706141105</v>
+        <v>1.040140711955118</v>
       </c>
       <c r="K12">
-        <v>1.035426865822733</v>
+        <v>1.045973509767789</v>
       </c>
       <c r="L12">
-        <v>1.029506150060109</v>
+        <v>1.046274517383727</v>
       </c>
       <c r="M12">
-        <v>1.037550127141165</v>
+        <v>1.056683578823103</v>
       </c>
       <c r="N12">
-        <v>1.013004103357024</v>
+        <v>1.017334244871309</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9977231730817977</v>
+        <v>1.033517093100875</v>
       </c>
       <c r="D13">
-        <v>1.020844965835258</v>
+        <v>1.042417178363692</v>
       </c>
       <c r="E13">
-        <v>1.014827904693078</v>
+        <v>1.042723503493563</v>
       </c>
       <c r="F13">
-        <v>1.023040079359237</v>
+        <v>1.053174878092393</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047497944604278</v>
+        <v>1.04065759149564</v>
       </c>
       <c r="J13">
-        <v>1.027531231083294</v>
+        <v>1.040163069797071</v>
       </c>
       <c r="K13">
-        <v>1.03554068543897</v>
+        <v>1.045995739171089</v>
       </c>
       <c r="L13">
-        <v>1.029633335031937</v>
+        <v>1.046300932656128</v>
       </c>
       <c r="M13">
-        <v>1.037696192375032</v>
+        <v>1.056714132800164</v>
       </c>
       <c r="N13">
-        <v>1.013041636372417</v>
+        <v>1.017341686346644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9984247816905255</v>
+        <v>1.033651216089256</v>
       </c>
       <c r="D14">
-        <v>1.021366276329608</v>
+        <v>1.042521784336647</v>
       </c>
       <c r="E14">
-        <v>1.01539518894878</v>
+        <v>1.04284187905377</v>
       </c>
       <c r="F14">
-        <v>1.023668331365988</v>
+        <v>1.05330650002393</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047726844043997</v>
+        <v>1.040690771105871</v>
       </c>
       <c r="J14">
-        <v>1.027898986680187</v>
+        <v>1.040236327149243</v>
       </c>
       <c r="K14">
-        <v>1.03591265540817</v>
+        <v>1.046068571893489</v>
       </c>
       <c r="L14">
-        <v>1.030049095648813</v>
+        <v>1.046387495418828</v>
       </c>
       <c r="M14">
-        <v>1.038173689699765</v>
+        <v>1.056814260215839</v>
       </c>
       <c r="N14">
-        <v>1.01316430300144</v>
+        <v>1.017366068410902</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9988557765712328</v>
+        <v>1.033733871156348</v>
       </c>
       <c r="D15">
-        <v>1.021686615381893</v>
+        <v>1.042586250135644</v>
       </c>
       <c r="E15">
-        <v>1.015743838882034</v>
+        <v>1.0429148395767</v>
       </c>
       <c r="F15">
-        <v>1.024054438995591</v>
+        <v>1.053387624622562</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047867244152372</v>
+        <v>1.040711189529698</v>
       </c>
       <c r="J15">
-        <v>1.028124856636751</v>
+        <v>1.040281463567285</v>
       </c>
       <c r="K15">
-        <v>1.036141100695186</v>
+        <v>1.046113443780032</v>
       </c>
       <c r="L15">
-        <v>1.030304520630943</v>
+        <v>1.04644083810778</v>
       </c>
       <c r="M15">
-        <v>1.038467056893664</v>
+        <v>1.056875963500679</v>
       </c>
       <c r="N15">
-        <v>1.013239643504415</v>
+        <v>1.017381090627443</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001344984297405</v>
+        <v>1.03421522458633</v>
       </c>
       <c r="D16">
-        <v>1.023538217511055</v>
+        <v>1.04296169044534</v>
       </c>
       <c r="E16">
-        <v>1.017760009904362</v>
+        <v>1.043339888096694</v>
       </c>
       <c r="F16">
-        <v>1.026287030383608</v>
+        <v>1.053860230394911</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048674877105114</v>
+        <v>1.040829656838907</v>
       </c>
       <c r="J16">
-        <v>1.029428725932685</v>
+        <v>1.040544178194058</v>
       </c>
       <c r="K16">
-        <v>1.03745963197455</v>
+        <v>1.046374574332263</v>
       </c>
       <c r="L16">
-        <v>1.031780080178357</v>
+        <v>1.046751444388435</v>
       </c>
       <c r="M16">
-        <v>1.040162015140942</v>
+        <v>1.057235277167483</v>
       </c>
       <c r="N16">
-        <v>1.013674564585586</v>
+        <v>1.017468520275521</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002889677251981</v>
+        <v>1.034517396855763</v>
       </c>
       <c r="D17">
-        <v>1.024688504367979</v>
+        <v>1.043197387662853</v>
       </c>
       <c r="E17">
-        <v>1.019013357731319</v>
+        <v>1.043606848701341</v>
       </c>
       <c r="F17">
-        <v>1.027674753092003</v>
+        <v>1.054157056454936</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049173172922431</v>
+        <v>1.040903635699205</v>
       </c>
       <c r="J17">
-        <v>1.030237260551794</v>
+        <v>1.040708972023731</v>
       </c>
       <c r="K17">
-        <v>1.038277072467292</v>
+        <v>1.046538335355021</v>
       </c>
       <c r="L17">
-        <v>1.032696029196251</v>
+        <v>1.046946391601447</v>
       </c>
       <c r="M17">
-        <v>1.041214340629604</v>
+        <v>1.057460816773505</v>
       </c>
       <c r="N17">
-        <v>1.013944265101355</v>
+        <v>1.017523356767982</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003784775035347</v>
+        <v>1.034693731794664</v>
       </c>
       <c r="D18">
-        <v>1.025355496064774</v>
+        <v>1.043334934917891</v>
       </c>
       <c r="E18">
-        <v>1.019740409526357</v>
+        <v>1.043762683756591</v>
       </c>
       <c r="F18">
-        <v>1.028479697404</v>
+        <v>1.054330323744446</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049460866203258</v>
+        <v>1.040946666179263</v>
       </c>
       <c r="J18">
-        <v>1.030705556725532</v>
+        <v>1.040805092984174</v>
       </c>
       <c r="K18">
-        <v>1.038750457305816</v>
+        <v>1.046633839758764</v>
       </c>
       <c r="L18">
-        <v>1.033226880788251</v>
+        <v>1.047060140889698</v>
       </c>
       <c r="M18">
-        <v>1.041824297971771</v>
+        <v>1.057592424260522</v>
       </c>
       <c r="N18">
-        <v>1.014100474243174</v>
+        <v>1.01755533971076</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004088992355365</v>
+        <v>1.03475387146432</v>
       </c>
       <c r="D19">
-        <v>1.025582259837044</v>
+        <v>1.043381846628463</v>
       </c>
       <c r="E19">
-        <v>1.019987643811754</v>
+        <v>1.043815840018873</v>
       </c>
       <c r="F19">
-        <v>1.028753409616345</v>
+        <v>1.054389426015946</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049558464873075</v>
+        <v>1.040961318056089</v>
       </c>
       <c r="J19">
-        <v>1.030864678061683</v>
+        <v>1.040837867621505</v>
       </c>
       <c r="K19">
-        <v>1.038911295674043</v>
+        <v>1.046666401765733</v>
       </c>
       <c r="L19">
-        <v>1.03340731574223</v>
+        <v>1.047098933171898</v>
       </c>
       <c r="M19">
-        <v>1.042031632077928</v>
+        <v>1.057637308123986</v>
       </c>
       <c r="N19">
-        <v>1.014153552319016</v>
+        <v>1.017566244670055</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002724559006234</v>
+        <v>1.034484968035107</v>
       </c>
       <c r="D20">
-        <v>1.024565499843524</v>
+        <v>1.043172092424609</v>
       </c>
       <c r="E20">
-        <v>1.018879301445972</v>
+        <v>1.043578193777378</v>
       </c>
       <c r="F20">
-        <v>1.027526330179459</v>
+        <v>1.054125195985202</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049120016974217</v>
+        <v>1.040895710887504</v>
       </c>
       <c r="J20">
-        <v>1.030150855982477</v>
+        <v>1.040691291246209</v>
       </c>
       <c r="K20">
-        <v>1.038189723321366</v>
+        <v>1.046520766849682</v>
       </c>
       <c r="L20">
-        <v>1.032598110264874</v>
+        <v>1.046925471474069</v>
       </c>
       <c r="M20">
-        <v>1.04110183553707</v>
+        <v>1.057436612904169</v>
       </c>
       <c r="N20">
-        <v>1.01391544327093</v>
+        <v>1.017517473561028</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9982184448144911</v>
+        <v>1.033611716569688</v>
       </c>
       <c r="D21">
-        <v>1.021212942477059</v>
+        <v>1.04249097743829</v>
       </c>
       <c r="E21">
-        <v>1.015228320151259</v>
+        <v>1.04280701509953</v>
       </c>
       <c r="F21">
-        <v>1.023483531347783</v>
+        <v>1.053267734812159</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047659570847955</v>
+        <v>1.040681005666835</v>
       </c>
       <c r="J21">
-        <v>1.027790841424333</v>
+        <v>1.040214754652073</v>
       </c>
       <c r="K21">
-        <v>1.035803273552263</v>
+        <v>1.046047125043839</v>
       </c>
       <c r="L21">
-        <v>1.029926818812561</v>
+        <v>1.046362003066165</v>
       </c>
       <c r="M21">
-        <v>1.038033252953904</v>
+        <v>1.056784772792763</v>
       </c>
       <c r="N21">
-        <v>1.013128230528465</v>
+        <v>1.017358888578531</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9953293086024273</v>
+        <v>1.033063429775654</v>
       </c>
       <c r="D22">
-        <v>1.019067806833968</v>
+        <v>1.04206336952489</v>
       </c>
       <c r="E22">
-        <v>1.01289491379158</v>
+        <v>1.042323253218483</v>
       </c>
       <c r="F22">
-        <v>1.020899150157983</v>
+        <v>1.052729834875187</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046713822780923</v>
+        <v>1.040544935875019</v>
       </c>
       <c r="J22">
-        <v>1.026275880647728</v>
+        <v>1.039915142400295</v>
       </c>
       <c r="K22">
-        <v>1.034270759977383</v>
+        <v>1.045749206040332</v>
       </c>
       <c r="L22">
-        <v>1.028215176195832</v>
+        <v>1.046008098536365</v>
       </c>
       <c r="M22">
-        <v>1.036067656880648</v>
+        <v>1.056375434757457</v>
       </c>
       <c r="N22">
-        <v>1.012622917009516</v>
+        <v>1.017259163000907</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9968663418749809</v>
+        <v>1.033354014178539</v>
       </c>
       <c r="D23">
-        <v>1.020208597338251</v>
+        <v>1.042289991596654</v>
       </c>
       <c r="E23">
-        <v>1.014135578627688</v>
+        <v>1.042579598739036</v>
       </c>
       <c r="F23">
-        <v>1.022273311988302</v>
+        <v>1.053014869412638</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047217833836795</v>
+        <v>1.040617170746144</v>
       </c>
       <c r="J23">
-        <v>1.027082006498665</v>
+        <v>1.04007397156121</v>
       </c>
       <c r="K23">
-        <v>1.035086278070845</v>
+        <v>1.045907149572879</v>
       </c>
       <c r="L23">
-        <v>1.029125663219435</v>
+        <v>1.046195674370668</v>
       </c>
       <c r="M23">
-        <v>1.037113173499801</v>
+        <v>1.056592384608773</v>
       </c>
       <c r="N23">
-        <v>1.012891796866734</v>
+        <v>1.017312030853398</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002799187023591</v>
+        <v>1.034499620967185</v>
       </c>
       <c r="D24">
-        <v>1.024621092487098</v>
+        <v>1.043183522040854</v>
       </c>
       <c r="E24">
-        <v>1.018939888068705</v>
+        <v>1.043591141329104</v>
       </c>
       <c r="F24">
-        <v>1.027593409962233</v>
+        <v>1.054139591947345</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049144044979452</v>
+        <v>1.040899292140113</v>
       </c>
       <c r="J24">
-        <v>1.030189908698582</v>
+        <v>1.040699280430218</v>
       </c>
       <c r="K24">
-        <v>1.038229203178753</v>
+        <v>1.046528705346418</v>
       </c>
       <c r="L24">
-        <v>1.032642366126277</v>
+        <v>1.046934924256138</v>
       </c>
       <c r="M24">
-        <v>1.041152683615672</v>
+        <v>1.057447549424119</v>
       </c>
       <c r="N24">
-        <v>1.013928470018511</v>
+        <v>1.017520131936045</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00945392967706</v>
+        <v>1.035832281342802</v>
       </c>
       <c r="D25">
-        <v>1.029587297222239</v>
+        <v>1.044223115934068</v>
       </c>
       <c r="E25">
-        <v>1.024358739301716</v>
+        <v>1.04476973679702</v>
       </c>
       <c r="F25">
-        <v>1.033591847508498</v>
+        <v>1.055450005217074</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051263816229552</v>
+        <v>1.041221962291619</v>
       </c>
       <c r="J25">
-        <v>1.03366726702687</v>
+        <v>1.041424892174337</v>
       </c>
       <c r="K25">
-        <v>1.041743036750924</v>
+        <v>1.047249406940274</v>
       </c>
       <c r="L25">
-        <v>1.036590329364802</v>
+        <v>1.04779434102227</v>
       </c>
       <c r="M25">
-        <v>1.04569014992191</v>
+        <v>1.058442034170332</v>
       </c>
       <c r="N25">
-        <v>1.015088410339143</v>
+        <v>1.01776153138091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.036897754395654</v>
+        <v>1.014590152680689</v>
       </c>
       <c r="D2">
-        <v>1.045054397419338</v>
+        <v>1.033432035092245</v>
       </c>
       <c r="E2">
-        <v>1.045713539688314</v>
+        <v>1.028563639863749</v>
       </c>
       <c r="F2">
-        <v>1.056499326006375</v>
+        <v>1.038244934148118</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041475486622723</v>
+        <v>1.052865755247214</v>
       </c>
       <c r="J2">
-        <v>1.042003567069894</v>
+        <v>1.036343063081881</v>
       </c>
       <c r="K2">
-        <v>1.047823715058676</v>
+        <v>1.044444457623927</v>
       </c>
       <c r="L2">
-        <v>1.048481006881135</v>
+        <v>1.039638879153433</v>
       </c>
       <c r="M2">
-        <v>1.059236869085619</v>
+        <v>1.049195979046941</v>
       </c>
       <c r="N2">
-        <v>1.01795397991912</v>
+        <v>1.015980938787219</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037672824603702</v>
+        <v>1.018226377076194</v>
       </c>
       <c r="D3">
-        <v>1.04565916556913</v>
+        <v>1.036159947814495</v>
       </c>
       <c r="E3">
-        <v>1.04640096635731</v>
+        <v>1.031552919280968</v>
       </c>
       <c r="F3">
-        <v>1.057263585920294</v>
+        <v>1.041552017444058</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041657326117372</v>
+        <v>1.053979407533844</v>
       </c>
       <c r="J3">
-        <v>1.042423670028049</v>
+        <v>1.038232210450782</v>
       </c>
       <c r="K3">
-        <v>1.048240384574989</v>
+        <v>1.046350151803815</v>
       </c>
       <c r="L3">
-        <v>1.048980252678307</v>
+        <v>1.041797385409753</v>
       </c>
       <c r="M3">
-        <v>1.059814905820955</v>
+        <v>1.05167946643488</v>
       </c>
       <c r="N3">
-        <v>1.018093652924174</v>
+        <v>1.016611025600315</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038175002752569</v>
+        <v>1.020538135075928</v>
       </c>
       <c r="D4">
-        <v>1.046051026858271</v>
+        <v>1.037896768910378</v>
       </c>
       <c r="E4">
-        <v>1.046846756100785</v>
+        <v>1.033458908161539</v>
       </c>
       <c r="F4">
-        <v>1.057759191844736</v>
+        <v>1.043660292682219</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041773945629559</v>
+        <v>1.054677725714264</v>
       </c>
       <c r="J4">
-        <v>1.042695465704114</v>
+        <v>1.039430674732378</v>
       </c>
       <c r="K4">
-        <v>1.048509836479969</v>
+        <v>1.047558355685826</v>
       </c>
       <c r="L4">
-        <v>1.04930359643157</v>
+        <v>1.043169612124848</v>
       </c>
       <c r="M4">
-        <v>1.060189347183397</v>
+        <v>1.053258855307855</v>
       </c>
       <c r="N4">
-        <v>1.018183999184924</v>
+        <v>1.017010716131011</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038386273537069</v>
+        <v>1.021500431231912</v>
       </c>
       <c r="D5">
-        <v>1.046215891659052</v>
+        <v>1.038620311875038</v>
       </c>
       <c r="E5">
-        <v>1.047034398366809</v>
+        <v>1.034253596313836</v>
       </c>
       <c r="F5">
-        <v>1.057967800603939</v>
+        <v>1.044539243316679</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041822721926379</v>
+        <v>1.054966048844037</v>
       </c>
       <c r="J5">
-        <v>1.042809717892125</v>
+        <v>1.039928906795983</v>
       </c>
       <c r="K5">
-        <v>1.048623074036711</v>
+        <v>1.048060448646831</v>
       </c>
       <c r="L5">
-        <v>1.049439599991159</v>
+        <v>1.043740776519537</v>
       </c>
       <c r="M5">
-        <v>1.060346859389729</v>
+        <v>1.053916382575797</v>
       </c>
       <c r="N5">
-        <v>1.018221972723816</v>
+        <v>1.017176868287137</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038421755869856</v>
+        <v>1.021661451857647</v>
       </c>
       <c r="D6">
-        <v>1.046243580534343</v>
+        <v>1.038741414558763</v>
       </c>
       <c r="E6">
-        <v>1.047065917888979</v>
+        <v>1.034386646630782</v>
       </c>
       <c r="F6">
-        <v>1.058002841882039</v>
+        <v>1.044686396700209</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041830896963012</v>
+        <v>1.055014154154976</v>
       </c>
       <c r="J6">
-        <v>1.042828900669069</v>
+        <v>1.040012237286855</v>
       </c>
       <c r="K6">
-        <v>1.048642084731584</v>
+        <v>1.048144413641132</v>
       </c>
       <c r="L6">
-        <v>1.049462439637148</v>
+        <v>1.043836346062401</v>
       </c>
       <c r="M6">
-        <v>1.060373312021333</v>
+        <v>1.054026410680468</v>
       </c>
       <c r="N6">
-        <v>1.018228348163146</v>
+        <v>1.017204657035771</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038177825156153</v>
+        <v>1.02055103055473</v>
       </c>
       <c r="D7">
-        <v>1.04605322929596</v>
+        <v>1.037906462712711</v>
       </c>
       <c r="E7">
-        <v>1.046849262475896</v>
+        <v>1.033469552482234</v>
       </c>
       <c r="F7">
-        <v>1.057761978281944</v>
+        <v>1.043672065950554</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041774598366421</v>
+        <v>1.054681598817913</v>
       </c>
       <c r="J7">
-        <v>1.042696992391263</v>
+        <v>1.039437353978922</v>
       </c>
       <c r="K7">
-        <v>1.048511349724832</v>
+        <v>1.047565087442462</v>
       </c>
       <c r="L7">
-        <v>1.049305413445328</v>
+        <v>1.043177266345371</v>
       </c>
       <c r="M7">
-        <v>1.060191451490105</v>
+        <v>1.053267666348942</v>
       </c>
       <c r="N7">
-        <v>1.018184506621369</v>
+        <v>1.017012943588186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037159556031509</v>
+        <v>1.015827717251298</v>
       </c>
       <c r="D8">
-        <v>1.045258669510857</v>
+        <v>1.034359910388472</v>
       </c>
       <c r="E8">
-        <v>1.04594565486715</v>
+        <v>1.029579845529984</v>
       </c>
       <c r="F8">
-        <v>1.056757386555576</v>
+        <v>1.039369252483832</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041537155510082</v>
+        <v>1.053246787514599</v>
       </c>
       <c r="J8">
-        <v>1.042145550089142</v>
+        <v>1.03698654565187</v>
       </c>
       <c r="K8">
-        <v>1.047964562966057</v>
+        <v>1.04509373127919</v>
       </c>
       <c r="L8">
-        <v>1.048649666614981</v>
+        <v>1.040373508624562</v>
       </c>
       <c r="M8">
-        <v>1.059432132721566</v>
+        <v>1.050041095824916</v>
       </c>
       <c r="N8">
-        <v>1.018001189298845</v>
+        <v>1.016195565372624</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035370344639894</v>
+        <v>1.007176642136815</v>
       </c>
       <c r="D9">
-        <v>1.043862744727283</v>
+        <v>1.027885874098182</v>
       </c>
       <c r="E9">
-        <v>1.044360969259138</v>
+        <v>1.022500735602395</v>
       </c>
       <c r="F9">
-        <v>1.054995526221938</v>
+        <v>1.031535373713213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041110803985039</v>
+        <v>1.050543695972227</v>
       </c>
       <c r="J9">
-        <v>1.041173599969963</v>
+        <v>1.032478495347179</v>
       </c>
       <c r="K9">
-        <v>1.046999884765631</v>
+        <v>1.040542162540569</v>
       </c>
       <c r="L9">
-        <v>1.047496511556336</v>
+        <v>1.035239005485175</v>
       </c>
       <c r="M9">
-        <v>1.058097358330876</v>
+        <v>1.04413672274599</v>
       </c>
       <c r="N9">
-        <v>1.017677940825732</v>
+        <v>1.014691873978508</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034181087483996</v>
+        <v>1.001169612086524</v>
       </c>
       <c r="D10">
-        <v>1.042935063782629</v>
+        <v>1.023407683977892</v>
       </c>
       <c r="E10">
-        <v>1.043309735461924</v>
+        <v>1.017617821719332</v>
       </c>
       <c r="F10">
-        <v>1.053826704333329</v>
+        <v>1.026129589971492</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040821280281411</v>
+        <v>1.048618162227</v>
       </c>
       <c r="J10">
-        <v>1.040525554871506</v>
+        <v>1.029336901761081</v>
       </c>
       <c r="K10">
-        <v>1.046356065815736</v>
+        <v>1.037366787087456</v>
       </c>
       <c r="L10">
-        <v>1.046729418910777</v>
+        <v>1.031676103642874</v>
       </c>
       <c r="M10">
-        <v>1.057209796378208</v>
+        <v>1.040042566534304</v>
       </c>
       <c r="N10">
-        <v>1.017462322930539</v>
+        <v>1.013643935237627</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033666992548468</v>
+        <v>0.9985071272959289</v>
       </c>
       <c r="D11">
-        <v>1.042534088933514</v>
+        <v>1.021427474203318</v>
       </c>
       <c r="E11">
-        <v>1.04285580451462</v>
+        <v>1.015461791776938</v>
       </c>
       <c r="F11">
-        <v>1.053321983721835</v>
+        <v>1.023742090512938</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040694670099559</v>
+        <v>1.047753681330821</v>
       </c>
       <c r="J11">
-        <v>1.040244942938943</v>
+        <v>1.027942143666839</v>
       </c>
       <c r="K11">
-        <v>1.0460771373598</v>
+        <v>1.035956305240657</v>
       </c>
       <c r="L11">
-        <v>1.046397677156698</v>
+        <v>1.030097895518239</v>
       </c>
       <c r="M11">
-        <v>1.05682603767871</v>
+        <v>1.038229737745427</v>
       </c>
       <c r="N11">
-        <v>1.017368935926766</v>
+        <v>1.013178698287325</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033476166172004</v>
+        <v>0.9975085271325863</v>
       </c>
       <c r="D12">
-        <v>1.042385258793457</v>
+        <v>1.020685519785413</v>
       </c>
       <c r="E12">
-        <v>1.042687385806957</v>
+        <v>1.014654421417372</v>
       </c>
       <c r="F12">
-        <v>1.053134718673112</v>
+        <v>1.022847946167965</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040647455370388</v>
+        <v>1.047427832086145</v>
       </c>
       <c r="J12">
-        <v>1.040140711955118</v>
+        <v>1.027418706141104</v>
       </c>
       <c r="K12">
-        <v>1.045973509767789</v>
+        <v>1.035426865822732</v>
       </c>
       <c r="L12">
-        <v>1.046274517383727</v>
+        <v>1.029506150060109</v>
       </c>
       <c r="M12">
-        <v>1.056683578823103</v>
+        <v>1.037550127141164</v>
       </c>
       <c r="N12">
-        <v>1.017334244871309</v>
+        <v>1.013004103357023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033517093100875</v>
+        <v>0.997723173081797</v>
       </c>
       <c r="D13">
-        <v>1.042417178363692</v>
+        <v>1.020844965835257</v>
       </c>
       <c r="E13">
-        <v>1.042723503493563</v>
+        <v>1.014827904693077</v>
       </c>
       <c r="F13">
-        <v>1.053174878092393</v>
+        <v>1.023040079359236</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04065759149564</v>
+        <v>1.047497944604277</v>
       </c>
       <c r="J13">
-        <v>1.040163069797071</v>
+        <v>1.027531231083293</v>
       </c>
       <c r="K13">
-        <v>1.045995739171089</v>
+        <v>1.03554068543897</v>
       </c>
       <c r="L13">
-        <v>1.046300932656128</v>
+        <v>1.029633335031937</v>
       </c>
       <c r="M13">
-        <v>1.056714132800164</v>
+        <v>1.037696192375031</v>
       </c>
       <c r="N13">
-        <v>1.017341686346644</v>
+        <v>1.013041636372417</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033651216089256</v>
+        <v>0.9984247816905258</v>
       </c>
       <c r="D14">
-        <v>1.042521784336647</v>
+        <v>1.021366276329608</v>
       </c>
       <c r="E14">
-        <v>1.04284187905377</v>
+        <v>1.015395188948781</v>
       </c>
       <c r="F14">
-        <v>1.05330650002393</v>
+        <v>1.023668331365988</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040690771105871</v>
+        <v>1.047726844043998</v>
       </c>
       <c r="J14">
-        <v>1.040236327149243</v>
+        <v>1.027898986680187</v>
       </c>
       <c r="K14">
-        <v>1.046068571893489</v>
+        <v>1.035912655408171</v>
       </c>
       <c r="L14">
-        <v>1.046387495418828</v>
+        <v>1.030049095648814</v>
       </c>
       <c r="M14">
-        <v>1.056814260215839</v>
+        <v>1.038173689699766</v>
       </c>
       <c r="N14">
-        <v>1.017366068410902</v>
+        <v>1.01316430300144</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033733871156348</v>
+        <v>0.9988557765712328</v>
       </c>
       <c r="D15">
-        <v>1.042586250135644</v>
+        <v>1.021686615381893</v>
       </c>
       <c r="E15">
-        <v>1.0429148395767</v>
+        <v>1.015743838882033</v>
       </c>
       <c r="F15">
-        <v>1.053387624622562</v>
+        <v>1.02405443899559</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040711189529698</v>
+        <v>1.047867244152372</v>
       </c>
       <c r="J15">
-        <v>1.040281463567285</v>
+        <v>1.028124856636751</v>
       </c>
       <c r="K15">
-        <v>1.046113443780032</v>
+        <v>1.036141100695186</v>
       </c>
       <c r="L15">
-        <v>1.04644083810778</v>
+        <v>1.030304520630943</v>
       </c>
       <c r="M15">
-        <v>1.056875963500679</v>
+        <v>1.038467056893664</v>
       </c>
       <c r="N15">
-        <v>1.017381090627443</v>
+        <v>1.013239643504415</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03421522458633</v>
+        <v>1.001344984297405</v>
       </c>
       <c r="D16">
-        <v>1.04296169044534</v>
+        <v>1.023538217511055</v>
       </c>
       <c r="E16">
-        <v>1.043339888096694</v>
+        <v>1.017760009904362</v>
       </c>
       <c r="F16">
-        <v>1.053860230394911</v>
+        <v>1.026287030383608</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040829656838907</v>
+        <v>1.048674877105114</v>
       </c>
       <c r="J16">
-        <v>1.040544178194058</v>
+        <v>1.029428725932685</v>
       </c>
       <c r="K16">
-        <v>1.046374574332263</v>
+        <v>1.03745963197455</v>
       </c>
       <c r="L16">
-        <v>1.046751444388435</v>
+        <v>1.031780080178357</v>
       </c>
       <c r="M16">
-        <v>1.057235277167483</v>
+        <v>1.040162015140942</v>
       </c>
       <c r="N16">
-        <v>1.017468520275521</v>
+        <v>1.013674564585586</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034517396855763</v>
+        <v>1.002889677251982</v>
       </c>
       <c r="D17">
-        <v>1.043197387662853</v>
+        <v>1.024688504367979</v>
       </c>
       <c r="E17">
-        <v>1.043606848701341</v>
+        <v>1.01901335773132</v>
       </c>
       <c r="F17">
-        <v>1.054157056454936</v>
+        <v>1.027674753092004</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040903635699205</v>
+        <v>1.049173172922431</v>
       </c>
       <c r="J17">
-        <v>1.040708972023731</v>
+        <v>1.030237260551795</v>
       </c>
       <c r="K17">
-        <v>1.046538335355021</v>
+        <v>1.038277072467293</v>
       </c>
       <c r="L17">
-        <v>1.046946391601447</v>
+        <v>1.032696029196252</v>
       </c>
       <c r="M17">
-        <v>1.057460816773505</v>
+        <v>1.041214340629604</v>
       </c>
       <c r="N17">
-        <v>1.017523356767982</v>
+        <v>1.013944265101355</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034693731794664</v>
+        <v>1.003784775035346</v>
       </c>
       <c r="D18">
-        <v>1.043334934917891</v>
+        <v>1.025355496064773</v>
       </c>
       <c r="E18">
-        <v>1.043762683756591</v>
+        <v>1.019740409526357</v>
       </c>
       <c r="F18">
-        <v>1.054330323744446</v>
+        <v>1.028479697404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040946666179263</v>
+        <v>1.049460866203258</v>
       </c>
       <c r="J18">
-        <v>1.040805092984174</v>
+        <v>1.030705556725531</v>
       </c>
       <c r="K18">
-        <v>1.046633839758764</v>
+        <v>1.038750457305815</v>
       </c>
       <c r="L18">
-        <v>1.047060140889698</v>
+        <v>1.03322688078825</v>
       </c>
       <c r="M18">
-        <v>1.057592424260522</v>
+        <v>1.04182429797177</v>
       </c>
       <c r="N18">
-        <v>1.01755533971076</v>
+        <v>1.014100474243174</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03475387146432</v>
+        <v>1.004088992355365</v>
       </c>
       <c r="D19">
-        <v>1.043381846628463</v>
+        <v>1.025582259837044</v>
       </c>
       <c r="E19">
-        <v>1.043815840018873</v>
+        <v>1.019987643811753</v>
       </c>
       <c r="F19">
-        <v>1.054389426015946</v>
+        <v>1.028753409616345</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040961318056089</v>
+        <v>1.049558464873075</v>
       </c>
       <c r="J19">
-        <v>1.040837867621505</v>
+        <v>1.030864678061683</v>
       </c>
       <c r="K19">
-        <v>1.046666401765733</v>
+        <v>1.038911295674043</v>
       </c>
       <c r="L19">
-        <v>1.047098933171898</v>
+        <v>1.033407315742229</v>
       </c>
       <c r="M19">
-        <v>1.057637308123986</v>
+        <v>1.042031632077927</v>
       </c>
       <c r="N19">
-        <v>1.017566244670055</v>
+        <v>1.014153552319015</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034484968035107</v>
+        <v>1.002724559006233</v>
       </c>
       <c r="D20">
-        <v>1.043172092424609</v>
+        <v>1.024565499843523</v>
       </c>
       <c r="E20">
-        <v>1.043578193777378</v>
+        <v>1.018879301445971</v>
       </c>
       <c r="F20">
-        <v>1.054125195985202</v>
+        <v>1.027526330179458</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040895710887504</v>
+        <v>1.049120016974217</v>
       </c>
       <c r="J20">
-        <v>1.040691291246209</v>
+        <v>1.030150855982476</v>
       </c>
       <c r="K20">
-        <v>1.046520766849682</v>
+        <v>1.038189723321365</v>
       </c>
       <c r="L20">
-        <v>1.046925471474069</v>
+        <v>1.032598110264874</v>
       </c>
       <c r="M20">
-        <v>1.057436612904169</v>
+        <v>1.041101835537069</v>
       </c>
       <c r="N20">
-        <v>1.017517473561028</v>
+        <v>1.013915443270929</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033611716569688</v>
+        <v>0.9982184448144912</v>
       </c>
       <c r="D21">
-        <v>1.04249097743829</v>
+        <v>1.021212942477059</v>
       </c>
       <c r="E21">
-        <v>1.04280701509953</v>
+        <v>1.015228320151259</v>
       </c>
       <c r="F21">
-        <v>1.053267734812159</v>
+        <v>1.023483531347784</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040681005666835</v>
+        <v>1.047659570847955</v>
       </c>
       <c r="J21">
-        <v>1.040214754652073</v>
+        <v>1.027790841424333</v>
       </c>
       <c r="K21">
-        <v>1.046047125043839</v>
+        <v>1.035803273552264</v>
       </c>
       <c r="L21">
-        <v>1.046362003066165</v>
+        <v>1.029926818812562</v>
       </c>
       <c r="M21">
-        <v>1.056784772792763</v>
+        <v>1.038033252953905</v>
       </c>
       <c r="N21">
-        <v>1.017358888578531</v>
+        <v>1.013128230528465</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033063429775654</v>
+        <v>0.995329308602427</v>
       </c>
       <c r="D22">
-        <v>1.04206336952489</v>
+        <v>1.019067806833966</v>
       </c>
       <c r="E22">
-        <v>1.042323253218483</v>
+        <v>1.012894913791579</v>
       </c>
       <c r="F22">
-        <v>1.052729834875187</v>
+        <v>1.020899150157983</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040544935875019</v>
+        <v>1.046713822780923</v>
       </c>
       <c r="J22">
-        <v>1.039915142400295</v>
+        <v>1.026275880647727</v>
       </c>
       <c r="K22">
-        <v>1.045749206040332</v>
+        <v>1.034270759977382</v>
       </c>
       <c r="L22">
-        <v>1.046008098536365</v>
+        <v>1.028215176195832</v>
       </c>
       <c r="M22">
-        <v>1.056375434757457</v>
+        <v>1.036067656880648</v>
       </c>
       <c r="N22">
-        <v>1.017259163000907</v>
+        <v>1.012622917009516</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033354014178539</v>
+        <v>0.9968663418749807</v>
       </c>
       <c r="D23">
-        <v>1.042289991596654</v>
+        <v>1.020208597338251</v>
       </c>
       <c r="E23">
-        <v>1.042579598739036</v>
+        <v>1.014135578627688</v>
       </c>
       <c r="F23">
-        <v>1.053014869412638</v>
+        <v>1.022273311988301</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040617170746144</v>
+        <v>1.047217833836795</v>
       </c>
       <c r="J23">
-        <v>1.04007397156121</v>
+        <v>1.027082006498665</v>
       </c>
       <c r="K23">
-        <v>1.045907149572879</v>
+        <v>1.035086278070845</v>
       </c>
       <c r="L23">
-        <v>1.046195674370668</v>
+        <v>1.029125663219435</v>
       </c>
       <c r="M23">
-        <v>1.056592384608773</v>
+        <v>1.0371131734998</v>
       </c>
       <c r="N23">
-        <v>1.017312030853398</v>
+        <v>1.012891796866734</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034499620967185</v>
+        <v>1.00279918702359</v>
       </c>
       <c r="D24">
-        <v>1.043183522040854</v>
+        <v>1.024621092487098</v>
       </c>
       <c r="E24">
-        <v>1.043591141329104</v>
+        <v>1.018939888068703</v>
       </c>
       <c r="F24">
-        <v>1.054139591947345</v>
+        <v>1.027593409962232</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040899292140113</v>
+        <v>1.049144044979452</v>
       </c>
       <c r="J24">
-        <v>1.040699280430218</v>
+        <v>1.030189908698581</v>
       </c>
       <c r="K24">
-        <v>1.046528705346418</v>
+        <v>1.038229203178752</v>
       </c>
       <c r="L24">
-        <v>1.046934924256138</v>
+        <v>1.032642366126276</v>
       </c>
       <c r="M24">
-        <v>1.057447549424119</v>
+        <v>1.041152683615671</v>
       </c>
       <c r="N24">
-        <v>1.017520131936045</v>
+        <v>1.013928470018511</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035832281342802</v>
+        <v>1.009453929677058</v>
       </c>
       <c r="D25">
-        <v>1.044223115934068</v>
+        <v>1.029587297222237</v>
       </c>
       <c r="E25">
-        <v>1.04476973679702</v>
+        <v>1.024358739301714</v>
       </c>
       <c r="F25">
-        <v>1.055450005217074</v>
+        <v>1.033591847508496</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041221962291619</v>
+        <v>1.051263816229551</v>
       </c>
       <c r="J25">
-        <v>1.041424892174337</v>
+        <v>1.033667267026869</v>
       </c>
       <c r="K25">
-        <v>1.047249406940274</v>
+        <v>1.041743036750923</v>
       </c>
       <c r="L25">
-        <v>1.04779434102227</v>
+        <v>1.036590329364801</v>
       </c>
       <c r="M25">
-        <v>1.058442034170332</v>
+        <v>1.045690149921909</v>
       </c>
       <c r="N25">
-        <v>1.01776153138091</v>
+        <v>1.015088410339143</v>
       </c>
     </row>
   </sheetData>
